--- a/Documents/Shared Variables2.xlsx
+++ b/Documents/Shared Variables2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Foam Project\FoamMachineProject\FoamMachineProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45810A2-A0A9-4BAA-89FE-EEC0D070C008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F0035D-1FE6-4F6F-B32B-868ACAFB8E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="672" activeTab="1" xr2:uid="{1B8D28C0-02B2-42CC-B7EE-2782C45D661C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="672" xr2:uid="{1B8D28C0-02B2-42CC-B7EE-2782C45D661C}"/>
   </bookViews>
   <sheets>
     <sheet name="RaspberryMain" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="RaspberryCNC" sheetId="3" r:id="rId3"/>
     <sheet name="RapberryFork" sheetId="6" r:id="rId4"/>
     <sheet name="MainFork" sheetId="7" r:id="rId5"/>
+    <sheet name="CNCFork" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="214">
   <si>
     <t>ID number</t>
   </si>
@@ -291,15 +292,6 @@
     <t>FOAM_HEIGHT</t>
   </si>
   <si>
-    <t>GANTRY1_HEAD_FRAME_Y_SENSOR</t>
-  </si>
-  <si>
-    <t>GANTRY2_HEAD_FRAME_Y_SENSOR</t>
-  </si>
-  <si>
-    <t>which sensor is selected according to drill bit diameter</t>
-  </si>
-  <si>
     <t>FEEDER_EXTRACTION_SPEED</t>
   </si>
   <si>
@@ -655,6 +647,42 @@
   </si>
   <si>
     <t>0: none     2: Z Axis Setup   3: start postion 2    4: Sleeping</t>
+  </si>
+  <si>
+    <t>G1_FIXATION_DOING</t>
+  </si>
+  <si>
+    <t>G2_FIXATION_DOING</t>
+  </si>
+  <si>
+    <t>When true the fixation operation is doing when false, it is either do not start, or finish doing.    This variable is sent in two direction (true) from fork to CNC to start fixation. (false) from CNC to fork to acknowladge fixation end.</t>
+  </si>
+  <si>
+    <t>CNC_OPERATION_DOING</t>
+  </si>
+  <si>
+    <t>false: operation end                   true: operation Do</t>
+  </si>
+  <si>
+    <t>G1_CUTTING_DOING</t>
+  </si>
+  <si>
+    <t>G2_CUTTING_DOING</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>G1_FOAM_WIDTH</t>
+  </si>
+  <si>
+    <t>G2_FOAM_WIDTH</t>
+  </si>
+  <si>
+    <t>FORK_START_HOMING</t>
+  </si>
+  <si>
+    <t>FORK_FIXATION_POINT_2_X</t>
   </si>
 </sst>
 </file>
@@ -751,7 +779,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -792,6 +820,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -817,6 +848,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1155,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9890BB-F1F0-46CB-9E54-E7A8AA62D282}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:H16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1298,7 +1332,7 @@
         <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>52</v>
@@ -1365,15 +1399,15 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="A10" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
@@ -1394,10 +1428,10 @@
     </row>
     <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>7</v>
@@ -1416,8 +1450,8 @@
       <c r="D13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>91</v>
+      <c r="E13" s="15" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -1430,34 +1464,34 @@
       <c r="D14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="14"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:8" s="7" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B15" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
+      <c r="A16" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
       <c r="B17" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -1466,19 +1500,19 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
       <c r="B18" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>40</v>
@@ -1499,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9832B9-4F97-4602-AFE2-DB6DF789160E}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1544,7 +1578,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1561,7 +1595,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -1578,7 +1612,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1586,31 +1620,49 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1680,10 +1732,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4BFC2E-CD49-47B9-8086-20847B8D6DDB}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1734,7 +1786,7 @@
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1754,22 +1806,22 @@
       <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="20"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="20">
+      <c r="A4" s="21">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="21" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1780,10 +1832,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="1" t="s">
         <v>27</v>
       </c>
@@ -1792,15 +1844,15 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="A6" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="7" t="s">
@@ -1880,114 +1932,74 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="9">
-        <v>12</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="9">
-        <v>13</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="1:7" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="16" t="s">
+    <row r="16" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:7" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B21" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>14</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="1:7" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B19" s="11" t="s">
+      <c r="C22" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>187</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="10">
-        <v>14</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="10">
-        <v>1</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="10">
-        <v>1</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B23" s="10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>10</v>
@@ -1999,15 +2011,15 @@
         <v>41</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>10</v>
@@ -2019,77 +2031,95 @@
         <v>41</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B25" s="10" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E25" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>110</v>
+        <v>100</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="E27" s="10">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B28" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="E28" s="10">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B29" s="10" t="s">
-        <v>199</v>
+        <v>106</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E29" s="10">
         <v>3</v>
@@ -2097,10 +2127,10 @@
     </row>
     <row r="30" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B30" s="10" t="s">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E30" s="10">
         <v>3</v>
@@ -2108,177 +2138,183 @@
     </row>
     <row r="31" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B31" s="10" t="s">
-        <v>113</v>
+        <v>196</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>191</v>
+        <v>107</v>
+      </c>
+      <c r="E31" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B32" s="10" t="s">
-        <v>115</v>
+        <v>197</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>192</v>
+        <v>109</v>
+      </c>
+      <c r="E32" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B33" s="10" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B34" s="10" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E34" s="10">
-        <v>5</v>
+        <v>113</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B35" s="10" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B36" s="10" t="s">
-        <v>123</v>
+        <v>116</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="E36" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B37" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E37" s="10">
-        <v>3</v>
+        <v>118</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B38" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E38" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B39" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>193</v>
+        <v>121</v>
+      </c>
+      <c r="E39" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B40" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="E40" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B41" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E41" s="10">
+        <v>123</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12" t="s">
+    <row r="43" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E46" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="E44" s="12" t="s">
+      <c r="F46" s="12"/>
+      <c r="G46" s="12" t="s">
         <v>168</v>
-      </c>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B47" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>10</v>
@@ -2286,7 +2322,7 @@
     </row>
     <row r="48" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B48" s="12" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>10</v>
@@ -2294,7 +2330,7 @@
     </row>
     <row r="49" spans="2:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B49" s="12" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>10</v>
@@ -2302,7 +2338,7 @@
     </row>
     <row r="50" spans="2:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B50" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>10</v>
@@ -2310,7 +2346,7 @@
     </row>
     <row r="51" spans="2:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B51" s="12" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>10</v>
@@ -2318,18 +2354,34 @@
     </row>
     <row r="52" spans="2:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B52" s="12" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D52" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D54" s="12" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A20:G20"/>
     <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="E17:E18"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="C4:C5"/>
@@ -2345,8 +2397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76078A6-22E5-4ACC-8B9D-7806C77E59B4}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2389,15 +2441,15 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="A2" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
@@ -2463,32 +2515,32 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
+      <c r="A11" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:8" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -2496,7 +2548,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>10</v>
@@ -2505,10 +2557,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -2516,7 +2568,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>10</v>
@@ -2525,7 +2577,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -2533,7 +2585,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>10</v>
@@ -2542,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -2550,7 +2602,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>10</v>
@@ -2559,7 +2611,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -2567,7 +2619,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>10</v>
@@ -2576,7 +2628,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -2584,7 +2636,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>10</v>
@@ -2593,7 +2645,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -2601,7 +2653,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>10</v>
@@ -2610,7 +2662,7 @@
         <v>3</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -2618,7 +2670,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>10</v>
@@ -2627,7 +2679,7 @@
         <v>3</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -2635,7 +2687,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>10</v>
@@ -2644,7 +2696,7 @@
         <v>3</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -2652,7 +2704,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>10</v>
@@ -2661,7 +2713,7 @@
         <v>4</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -2669,7 +2721,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>10</v>
@@ -2678,7 +2730,7 @@
         <v>4</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -2686,7 +2738,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>10</v>
@@ -2695,7 +2747,7 @@
         <v>5</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -2703,7 +2755,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>10</v>
@@ -2712,7 +2764,7 @@
         <v>5</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -2720,7 +2772,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>10</v>
@@ -2729,7 +2781,7 @@
         <v>6</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -2737,7 +2789,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>10</v>
@@ -2746,7 +2798,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -2754,7 +2806,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>10</v>
@@ -2763,12 +2815,12 @@
         <v>7</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B29" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>10</v>
@@ -2777,12 +2829,12 @@
         <v>7</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B30" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E30" s="10">
         <v>5</v>
@@ -2790,23 +2842,23 @@
     </row>
     <row r="31" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B31" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B32" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B33" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E33" s="10">
         <v>7</v>
@@ -2814,7 +2866,7 @@
     </row>
     <row r="34" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B34" s="10" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E34" s="10">
         <v>8</v>
@@ -2822,152 +2874,152 @@
     </row>
     <row r="35" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B35" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E35" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="A36" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="22" t="s">
-        <v>170</v>
+      <c r="E37" s="23" t="s">
+        <v>167</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="12"/>
       <c r="B38" s="12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="22"/>
+      <c r="E38" s="23"/>
       <c r="F38" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="12"/>
       <c r="B39" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="22"/>
+      <c r="E39" s="23"/>
       <c r="F39" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="12"/>
       <c r="B40" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="22"/>
+      <c r="E40" s="23"/>
       <c r="F40" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="12"/>
       <c r="B41" s="12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="22"/>
+      <c r="E41" s="23"/>
       <c r="F41" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="12"/>
       <c r="B42" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="22"/>
+      <c r="E42" s="23"/>
       <c r="F42" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="12"/>
       <c r="B43" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="22"/>
+      <c r="E43" s="23"/>
       <c r="F43" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="12"/>
       <c r="B44" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="12"/>
       <c r="B45" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E45" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F45" s="12" t="s">
         <v>168</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2986,7 +3038,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E6" sqref="A1:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3082,7 +3134,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>40</v>
@@ -3093,16 +3145,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>40</v>
@@ -3181,4 +3233,265 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78ACC01F-5FF4-49A3-B553-63C9108E4287}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="14" customWidth="1"/>
+    <col min="2" max="3" width="20.7265625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="8.36328125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="56.81640625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="20.7265625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="22.26953125" style="14" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" s="14" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/Shared Variables2.xlsx
+++ b/Documents/Shared Variables2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Foam Project\FoamMachineProject\FoamMachineProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F0035D-1FE6-4F6F-B32B-868ACAFB8E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A355858-D965-403E-89C4-D0838BFC97EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="672" xr2:uid="{1B8D28C0-02B2-42CC-B7EE-2782C45D661C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="672" activeTab="2" xr2:uid="{1B8D28C0-02B2-42CC-B7EE-2782C45D661C}"/>
   </bookViews>
   <sheets>
     <sheet name="RaspberryMain" sheetId="1" r:id="rId1"/>
@@ -1189,7 +1189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9890BB-F1F0-46CB-9E54-E7A8AA62D282}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1534,7 +1534,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1734,8 +1734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4BFC2E-CD49-47B9-8086-20847B8D6DDB}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1855,6 +1855,9 @@
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
       <c r="B7" s="7" t="s">
         <v>71</v>
       </c>
@@ -1866,6 +1869,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
       <c r="B8" s="7" t="s">
         <v>74</v>
       </c>

--- a/Documents/Shared Variables2.xlsx
+++ b/Documents/Shared Variables2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Foam Project\FoamMachineProject\FoamMachineProject\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\youssry\LAST1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A355858-D965-403E-89C4-D0838BFC97EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C78ABDD-2496-434C-B592-470C7102F188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="672" activeTab="2" xr2:uid="{1B8D28C0-02B2-42CC-B7EE-2782C45D661C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" activeTab="3" xr2:uid="{1B8D28C0-02B2-42CC-B7EE-2782C45D661C}"/>
   </bookViews>
   <sheets>
     <sheet name="RaspberryMain" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="217">
   <si>
     <t>ID number</t>
   </si>
@@ -325,15 +325,6 @@
     <t>SidePlateLM1</t>
   </si>
   <si>
-    <t>SIDE_PLATE_LM_2</t>
-  </si>
-  <si>
-    <t>SIDE_PLATE_LM_3</t>
-  </si>
-  <si>
-    <t>SIDE_PLATE_LM_4</t>
-  </si>
-  <si>
     <t>SidePlateLM2</t>
   </si>
   <si>
@@ -346,9 +337,6 @@
     <t>FixationG1</t>
   </si>
   <si>
-    <t>SIDE_PLATE_LM_5</t>
-  </si>
-  <si>
     <t>SidePlateLM5</t>
   </si>
   <si>
@@ -683,13 +671,34 @@
   </si>
   <si>
     <t>FORK_FIXATION_POINT_2_X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File Name </t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>CNC_SENSOR_PAGE</t>
+  </si>
+  <si>
+    <t>SIDE_PLATE_LM_2_SENSOR</t>
+  </si>
+  <si>
+    <t>SIDE_PLATE_LM_3_SENSOR</t>
+  </si>
+  <si>
+    <t>SIDE_PLATE_LM_4_SENSOR</t>
+  </si>
+  <si>
+    <t>SIDE_PLATE_LM_5_SENSOR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -697,8 +706,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -729,8 +746,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -775,11 +798,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -823,10 +861,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -838,13 +912,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1190,23 +1261,23 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="74.453125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.08984375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="2"/>
-    <col min="8" max="8" width="26.1796875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="10.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="74.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" style="2"/>
+    <col min="8" max="8" width="26.21875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1232,7 +1303,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1255,7 +1326,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>53</v>
       </c>
@@ -1272,7 +1343,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1295,7 +1366,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1318,7 +1389,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -1332,7 +1403,7 @@
         <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>52</v>
@@ -1341,7 +1412,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -1358,7 +1429,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -1378,7 +1449,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -1398,18 +1469,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>59</v>
       </c>
@@ -1426,7 +1497,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>86</v>
       </c>
@@ -1440,7 +1511,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>63</v>
       </c>
@@ -1450,11 +1521,11 @@
       <c r="D13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>64</v>
       </c>
@@ -1464,40 +1535,40 @@
       <c r="D14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" s="7" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" spans="1:8" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-    </row>
-    <row r="17" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+    </row>
+    <row r="17" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="11" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="11" t="s">
         <v>91</v>
@@ -1531,202 +1602,213 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9832B9-4F97-4602-AFE2-DB6DF789160E}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A2" zoomScale="83" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="74.453125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="20.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="74.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="F1" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="15">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="E2" s="17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="E3" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="D6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="B7" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
+      <c r="B8" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1734,651 +1816,764 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4BFC2E-CD49-47B9-8086-20847B8D6DDB}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="74.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="1"/>
-    <col min="7" max="7" width="10.6328125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="20.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="74.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" style="2"/>
+    <col min="7" max="7" width="10.6640625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="28"/>
+      <c r="F3" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="21">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="28">
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="1" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
+    <row r="6" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
+    <row r="8" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9">
+    <row r="9" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
         <v>5</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="18" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9">
+      <c r="D9" s="18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18">
         <v>6</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="18" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9">
+      <c r="D10" s="18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18">
         <v>7</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="18" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="9">
+      <c r="D11" s="18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18">
         <v>8</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="18" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9">
+      <c r="D12" s="18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18">
         <v>9</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="9">
-        <v>10</v>
-      </c>
-      <c r="B14" s="9" t="s">
+    <row r="14" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18">
+        <v>10</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="9">
+      <c r="D14" s="18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18">
         <v>11</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="7" t="s">
+    <row r="16" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18">
+        <v>12</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="1:7" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19"/>
-    </row>
-    <row r="21" spans="1:7" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B21" s="11" t="s">
+    <row r="17" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="26"/>
+    </row>
+    <row r="18" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="26"/>
+    </row>
+    <row r="19" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+    </row>
+    <row r="21" spans="1:7" s="19" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="19">
+        <v>13</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="19">
+        <v>14</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="19">
+        <v>15</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="19">
+        <v>1</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="19">
+        <v>16</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="19">
+        <v>1</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="19">
+        <v>17</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="19">
+        <v>1</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="19">
+        <v>18</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="19">
+        <v>1</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="19">
+        <v>19</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="19">
+        <v>2</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="19">
+        <v>20</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="19">
+        <v>2</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="19">
+        <v>21</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="19">
+        <v>22</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="19">
+        <v>23</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="19">
+        <v>24</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="19">
+        <v>25</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="E21" s="13" t="s">
+    </row>
+    <row r="34" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="19">
+        <v>26</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="19" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="10">
-        <v>14</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="10" t="s">
+    <row r="35" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="19">
+        <v>27</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="19">
+        <v>28</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="19">
+        <v>29</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="F22" s="10" t="s">
+    </row>
+    <row r="38" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="19">
+        <v>30</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="19">
+        <v>31</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="19">
+        <v>32</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="19">
+        <v>33</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="19">
+        <v>34</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="19">
+        <v>35</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+    </row>
+    <row r="45" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="22">
+        <v>36</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="22">
+        <v>37</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="22">
+        <v>38</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="22">
+        <v>39</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="22">
+        <v>40</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="22">
         <v>41</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="10">
-        <v>1</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="10">
-        <v>1</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="10">
-        <v>1</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="10">
-        <v>1</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="10">
-        <v>2</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="10">
-        <v>2</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E30" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E32" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E36" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E38" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E39" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="E40" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E42" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="E43" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="12" t="s">
+      <c r="B50" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="22">
+        <v>42</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="22">
+        <v>43</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="22">
+        <v>44</v>
+      </c>
+      <c r="B53" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="D47" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="12" t="s">
+      <c r="D53" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="22">
+        <v>45</v>
+      </c>
+      <c r="B54" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="D50" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="22" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2403,24 +2598,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76078A6-22E5-4ACC-8B9D-7806C77E59B4}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="74.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.08984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="1"/>
-    <col min="8" max="8" width="26.1796875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="74.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" style="1"/>
+    <col min="8" max="8" width="26.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2446,18 +2642,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+    </row>
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>69</v>
       </c>
@@ -2465,7 +2661,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>70</v>
       </c>
@@ -2473,7 +2669,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>72</v>
       </c>
@@ -2481,7 +2677,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>73</v>
       </c>
@@ -2489,7 +2685,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>68</v>
       </c>
@@ -2500,7 +2696,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -2508,7 +2704,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -2516,7 +2712,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -2527,34 +2723,34 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-    </row>
-    <row r="12" spans="1:8" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
+    </row>
+    <row r="12" spans="1:8" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>9</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>10</v>
@@ -2566,15 +2762,15 @@
         <v>89</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>10</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>10</v>
@@ -2586,12 +2782,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>11</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>10</v>
@@ -2603,12 +2799,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>12</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>10</v>
@@ -2620,12 +2816,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>13</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>10</v>
@@ -2637,12 +2833,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>14</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>10</v>
@@ -2654,12 +2850,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>15</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>10</v>
@@ -2671,12 +2867,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>16</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>10</v>
@@ -2688,12 +2884,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>17</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>10</v>
@@ -2705,12 +2901,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>18</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>10</v>
@@ -2722,12 +2918,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>19</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>10</v>
@@ -2739,12 +2935,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>20</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>10</v>
@@ -2756,12 +2952,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>21</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>10</v>
@@ -2773,12 +2969,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>22</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>10</v>
@@ -2790,12 +2986,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>23</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>10</v>
@@ -2807,12 +3003,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>24</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>10</v>
@@ -2824,9 +3020,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>10</v>
@@ -2838,194 +3034,194 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E30" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E33" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E34" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E35" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
       <c r="B37" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="23" t="s">
-        <v>167</v>
+      <c r="E37" s="34" t="s">
+        <v>163</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="12"/>
       <c r="B38" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="23"/>
+      <c r="E38" s="34"/>
       <c r="F38" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="12"/>
       <c r="B39" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="23"/>
+      <c r="E39" s="34"/>
       <c r="F39" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="12"/>
       <c r="B40" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="23"/>
+      <c r="E40" s="34"/>
       <c r="F40" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="12"/>
       <c r="B41" s="12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="23"/>
+      <c r="E41" s="34"/>
       <c r="F41" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="12"/>
       <c r="B42" s="12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="23"/>
+      <c r="E42" s="34"/>
       <c r="F42" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="12"/>
       <c r="B43" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="23"/>
+      <c r="E43" s="34"/>
       <c r="F43" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="12"/>
       <c r="B44" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="12"/>
       <c r="B45" s="12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F45" s="12" t="s">
         <v>164</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3044,23 +3240,23 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="A1:H16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="74.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.08984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="1"/>
-    <col min="8" max="8" width="26.1796875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="74.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" style="1"/>
+    <col min="8" max="8" width="26.21875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3086,7 +3282,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3106,7 +3302,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3126,7 +3322,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3140,33 +3336,33 @@
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3186,52 +3382,52 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3245,23 +3441,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78ACC01F-5FF4-49A3-B553-63C9108E4287}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="14" customWidth="1"/>
-    <col min="2" max="3" width="20.7265625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="8.36328125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="56.81640625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="20.7265625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="22.26953125" style="14" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="14"/>
+    <col min="1" max="1" width="9.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="90.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.77734375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3287,46 +3483,46 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>204</v>
+      <c r="E2" s="35" t="s">
+        <v>200</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="24"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
@@ -3337,12 +3533,12 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
@@ -3353,51 +3549,55 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -3409,7 +3609,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -3421,7 +3621,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -3433,7 +3633,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -3445,7 +3645,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -3457,7 +3657,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -3469,7 +3669,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -3481,7 +3681,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -3493,11 +3693,12 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" s="14" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="30.45" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>